--- a/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\WeBinar\wepacs\misc\FSE\GATEWAY\A1#111#WEBINARSRLXX\We_BiNar_S.r.l\wepacs\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C29B1-C3D8-4973-BBED-265AD2D3C4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEC31E-6027-40E1-B145-24B7A769A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="208">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3362,9 +3362,7 @@
       <c r="J13" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K13" s="35"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35" t="s">
         <v>56</v>
@@ -3425,9 +3423,7 @@
       <c r="J14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35" t="s">
         <v>56</v>
@@ -3488,9 +3484,7 @@
       <c r="J15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35" t="s">
         <v>56</v>
@@ -3551,9 +3545,7 @@
       <c r="J16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K16" s="35"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35" t="s">
         <v>56</v>
@@ -3614,9 +3606,7 @@
       <c r="J17" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K17" s="35"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35" t="s">
         <v>56</v>
@@ -3677,9 +3667,7 @@
       <c r="J18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35" t="s">
         <v>56</v>
@@ -3740,9 +3728,7 @@
       <c r="J19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35" t="s">
         <v>56</v>
@@ -3803,9 +3789,7 @@
       <c r="J20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35" t="s">
         <v>56</v>
@@ -3866,9 +3850,7 @@
       <c r="J21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35" t="s">
         <v>56</v>
@@ -3929,9 +3911,7 @@
       <c r="J22" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K22" s="35"/>
       <c r="L22" s="35"/>
       <c r="M22" s="35" t="s">
         <v>56</v>
@@ -3992,9 +3972,7 @@
       <c r="J23" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K23" s="35"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35" t="s">
         <v>56</v>
@@ -4055,9 +4033,7 @@
       <c r="J24" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K24" s="35"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35" t="s">
         <v>56</v>
@@ -4118,9 +4094,7 @@
       <c r="J25" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K25" s="35"/>
       <c r="L25" s="35"/>
       <c r="M25" s="35" t="s">
         <v>56</v>
@@ -4181,9 +4155,7 @@
       <c r="J26" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K26" s="35"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35" t="s">
         <v>56</v>
@@ -4244,9 +4216,7 @@
       <c r="J27" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K27" s="35"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35" t="s">
         <v>56</v>
@@ -4307,9 +4277,7 @@
       <c r="J28" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K28" s="35"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35" t="s">
         <v>56</v>
@@ -4370,9 +4338,7 @@
       <c r="J29" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K29" s="35"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35" t="s">
         <v>56</v>
@@ -4433,9 +4399,7 @@
       <c r="J30" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K30" s="35"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -4482,9 +4446,7 @@
       <c r="J31" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K31" s="35"/>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
@@ -4531,9 +4493,7 @@
       <c r="J32" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="K32" s="35"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35" t="s">
         <v>56</v>
@@ -10357,18 +10317,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10626,6 +10574,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10636,23 +10596,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10671,6 +10614,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\WeBinar\wepacs\misc\FSE\GATEWAY\A1#111#WEBINARSRLXX\We_BiNar_S.r.l\wepacs\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEC31E-6027-40E1-B145-24B7A769A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48440B4-EF01-4648-AB99-4E8045253441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,12 +741,6 @@
     <t>2025-10-11T15:10:14Z</t>
   </si>
   <si>
-    <t>2025-10-11T15:10:36Z</t>
-  </si>
-  <si>
-    <t>2025-10-11T15:10:37Z</t>
-  </si>
-  <si>
     <t>2025-10-11T15:10:38Z</t>
   </si>
   <si>
@@ -801,12 +795,6 @@
     <t>2a4871818dfc4ce3ff9c231f544d277e</t>
   </si>
   <si>
-    <t>b8794d6583260d5c3dcee18abc39c3e9</t>
-  </si>
-  <si>
-    <t>7382ced8c76f6d104a81b028f483694e</t>
-  </si>
-  <si>
     <t>0cb48b6d73babfac7f4afcce46425efb</t>
   </si>
   <si>
@@ -861,13 +849,25 @@
     <t>2.16.840.1.113883.2.9.2.150909.4.4.9df84cc65eaab96baebfa476fbb83534c42f2618775fe1896652fa960a2d2200.9d26a3435f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150909.4.4.8be8157847b818cb75564d8baec6987bd66f70a51708353c8116ab2498cd371b.d85e24afb0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150909.4.4.ef74db587bb15310ac34db144162f692aada9970b7abcbc936d8bd0eef452f35.bcd9dfcaf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.150909.4.4.25d5aa67979e69c78c46f05ceb80997f060ed271ed1171cc67d8589549fa4c26.129fe156ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-18T21:47:41Z</t>
+  </si>
+  <si>
+    <t>2025-10-18T21:47:44Z</t>
+  </si>
+  <si>
+    <t>aa9671c090138b6faa11e3620b2cb866</t>
+  </si>
+  <si>
+    <t>abba07cc2ccdcbf4b4587bd19f4f58b5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150909.4.4.41a6f17bcd9c0a141a0d3e8589c695d1dbfa1e104d7bad5b149cd875fb5c35ad.37972fe81a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150909.4.4.ab49a0dcf18d83a20e471be92cf2ed3f6f014660686dc2364d3bbfc9df26432d.22c6d541dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3354,10 +3354,10 @@
         <v>148</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>47</v>
@@ -3415,10 +3415,10 @@
         <v>149</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>47</v>
@@ -3476,10 +3476,10 @@
         <v>150</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J15" s="35" t="s">
         <v>47</v>
@@ -3537,10 +3537,10 @@
         <v>151</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>47</v>
@@ -3598,10 +3598,10 @@
         <v>152</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>47</v>
@@ -3659,10 +3659,10 @@
         <v>153</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>47</v>
@@ -3720,10 +3720,10 @@
         <v>154</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>47</v>
@@ -3781,10 +3781,10 @@
         <v>155</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>47</v>
@@ -3842,10 +3842,10 @@
         <v>156</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>47</v>
@@ -3903,10 +3903,10 @@
         <v>157</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>47</v>
@@ -3964,10 +3964,10 @@
         <v>158</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>47</v>
@@ -4025,10 +4025,10 @@
         <v>159</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J24" s="35" t="s">
         <v>47</v>
@@ -4086,10 +4086,10 @@
         <v>160</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J25" s="35" t="s">
         <v>47</v>
@@ -4147,10 +4147,10 @@
         <v>161</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>47</v>
@@ -4208,10 +4208,10 @@
         <v>162</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>47</v>
@@ -4269,10 +4269,10 @@
         <v>163</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>47</v>
@@ -4330,10 +4330,10 @@
         <v>164</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>47</v>
@@ -4385,16 +4385,16 @@
         <v>133</v>
       </c>
       <c r="F30" s="34">
-        <v>45941</v>
+        <v>45948</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J30" s="35" t="s">
         <v>47</v>
@@ -4432,16 +4432,16 @@
         <v>135</v>
       </c>
       <c r="F31" s="34">
-        <v>45941</v>
+        <v>45948</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J31" s="35" t="s">
         <v>47</v>
@@ -4482,13 +4482,13 @@
         <v>45941</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>47</v>
@@ -10317,6 +10317,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10574,18 +10586,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10596,6 +10596,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10614,23 +10631,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\WeBinar\wepacs\misc\FSE\GATEWAY\A1#111#WEBINARSRLXX\We_BiNar_S.r.l\wepacs\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48440B4-EF01-4648-AB99-4E8045253441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC293AC0-B3B2-419D-ABFF-57E0708F9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,19 +855,19 @@
     <t>2025-10-18T21:47:41Z</t>
   </si>
   <si>
-    <t>2025-10-18T21:47:44Z</t>
-  </si>
-  <si>
     <t>aa9671c090138b6faa11e3620b2cb866</t>
   </si>
   <si>
-    <t>abba07cc2ccdcbf4b4587bd19f4f58b5</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.150909.4.4.41a6f17bcd9c0a141a0d3e8589c695d1dbfa1e104d7bad5b149cd875fb5c35ad.37972fe81a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150909.4.4.ab49a0dcf18d83a20e471be92cf2ed3f6f014660686dc2364d3bbfc9df26432d.22c6d541dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-08T16:05:20Z</t>
+  </si>
+  <si>
+    <t>51a7c574b5ffb88f815804261c450a59</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150909.4.4.b3925dcbb427e56c6a33a1cb9a222ba684098eac0b956275bd7448bc00122102.5962ec0dee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2902,10 +2902,10 @@
   <dimension ref="A1:W566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4391,10 +4391,10 @@
         <v>202</v>
       </c>
       <c r="H30" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" s="39" t="s">
         <v>204</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>206</v>
       </c>
       <c r="J30" s="35" t="s">
         <v>47</v>
@@ -4435,10 +4435,10 @@
         <v>45948</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I31" s="39" t="s">
         <v>207</v>
@@ -10317,18 +10317,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10586,6 +10574,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10596,23 +10596,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10631,6 +10614,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBINARSRLXX/We_BiNar_S.r.l/wepacs/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\WeBinar\wepacs\misc\FSE\GATEWAY\A1#111#WEBINARSRLXX\We_BiNar_S.r.l\wepacs\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC293AC0-B3B2-419D-ABFF-57E0708F9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863DD754-27F3-4E50-9E8D-DBA34FA9B14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -861,13 +861,13 @@
     <t>2.16.840.1.113883.2.9.2.150909.4.4.41a6f17bcd9c0a141a0d3e8589c695d1dbfa1e104d7bad5b149cd875fb5c35ad.37972fe81a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-11-08T16:05:20Z</t>
-  </si>
-  <si>
-    <t>51a7c574b5ffb88f815804261c450a59</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150909.4.4.b3925dcbb427e56c6a33a1cb9a222ba684098eac0b956275bd7448bc00122102.5962ec0dee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-13T19:08:25Z</t>
+  </si>
+  <si>
+    <t>eb6cadfc90095804f4e29078b7ab80e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150909.4.4.a6d85f5e79ae7f05470c88415b651b8d470f16047aba7a7d49e2dd17b20f6402.ed21d162a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2902,10 +2902,10 @@
   <dimension ref="A1:W566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4432,7 +4432,7 @@
         <v>135</v>
       </c>
       <c r="F31" s="34">
-        <v>45948</v>
+        <v>45974</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>205</v>
@@ -10317,6 +10317,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10574,18 +10586,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10596,6 +10596,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10614,23 +10631,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
